--- a/TableOrigin/910_Text.xlsx
+++ b/TableOrigin/910_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232899A8-5DC1-482D-B280-6E1DFEA8C97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1120290-1690-473C-A9B7-E1F9D39D89CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10815" yWindow="630" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18570" yWindow="120" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,30 @@
   </si>
   <si>
     <t>Goblin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -424,23 +448,56 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>91010001</v>
+        <v>91000001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <v>91000002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>91000003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>91010001</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>91010002</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/TableOrigin/910_Text.xlsx
+++ b/TableOrigin/910_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1120290-1690-473C-A9B7-E1F9D39D89CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B663CE46-05C9-4599-AC6F-E799516A3E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18570" yWindow="120" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="960" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,22 @@
   </si>
   <si>
     <t>Exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,16 +428,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -481,23 +498,45 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>91010001</v>
+        <v>91000004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <v>91000005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>91010001</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>91010002</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/TableOrigin/910_Text.xlsx
+++ b/TableOrigin/910_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B663CE46-05C9-4599-AC6F-E799516A3E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8704E88E-B9A4-4737-AF37-783EF86F6583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="960" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5745" yWindow="735" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,14 @@
   </si>
   <si>
     <t>Game Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -540,6 +548,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>91010003</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TableOrigin/910_Text.xlsx
+++ b/TableOrigin/910_Text.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8704E88E-B9A4-4737-AF37-783EF86F6583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13FD8B4-F5CF-4DF2-955E-B9BC44DA1E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="735" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17310" yWindow="510" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고블린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goblin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레벨 {0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,11 +95,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>불</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire</t>
+    <t>파란꽁룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간꽁룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록꽁룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란꽁룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueDino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedDino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenDino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowDino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주황불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrangeFire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueFire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,16 +468,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -476,10 +508,10 @@
         <v>91000001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -487,10 +519,10 @@
         <v>91000002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -498,10 +530,10 @@
         <v>91000003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -509,10 +541,10 @@
         <v>91000004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -520,10 +552,10 @@
         <v>91000005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -539,24 +571,68 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>91010002</v>
+        <v>91011001</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>91010003</v>
+        <v>91011002</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>91011003</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>91011004</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>91012001</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>91012002</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/TableOrigin/910_Text.xlsx
+++ b/TableOrigin/910_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13FD8B4-F5CF-4DF2-955E-B9BC44DA1E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6128EFA6-57C2-4DF2-9D42-4CC878A8912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17310" yWindow="510" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7695" yWindow="465" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>BlueFire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -560,78 +568,89 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>91010001</v>
+        <v>91000006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>91011001</v>
+        <v>91010001</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>91011002</v>
+        <v>91011001</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>91011003</v>
+        <v>91011002</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>91011004</v>
+        <v>91011003</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>91012001</v>
+        <v>91011004</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
+        <v>91012001</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>91012002</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/TableOrigin/910_Text.xlsx
+++ b/TableOrigin/910_Text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6128EFA6-57C2-4DF2-9D42-4CC878A8912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6E27FB-D4C4-430D-8590-0C2FA28AF75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7695" yWindow="465" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,46 @@
   </si>
   <si>
     <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처치 몬스터: {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kill Monster: {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 점수: {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Score: {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고보고 이어하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continuing after ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alive Time: {0} min {1} sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생존 시간: {0} 분 {1} 초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,17 +516,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -579,78 +619,133 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>91010001</v>
+        <v>91000007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>91011001</v>
+        <v>91000008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>91011002</v>
+        <v>91000009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>91011003</v>
+        <v>91000010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>91011004</v>
+        <v>91000011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>91012001</v>
+        <v>91010001</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
+        <v>91011001</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>91011002</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>91011003</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>91011004</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>91012001</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>91012002</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/TableOrigin/910_Text.xlsx
+++ b/TableOrigin/910_Text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6E27FB-D4C4-430D-8590-0C2FA28AF75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E08C164-3A52-48D5-B522-56A7DD2FDA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7695" yWindow="465" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,160 +35,293 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Ko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>En</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ja</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 {0}</t>
+  </si>
+  <si>
+    <t>공격</t>
+  </si>
+  <si>
+    <t>나가기</t>
+  </si>
+  <si>
+    <t>점프</t>
+  </si>
+  <si>
+    <t>게임 시작</t>
+  </si>
+  <si>
+    <t>일시정지</t>
+  </si>
+  <si>
+    <t>게임 종료</t>
+  </si>
+  <si>
+    <t>생존 시간: {0} 분 {1} 초</t>
+  </si>
+  <si>
+    <t>처치 몬스터: {0}</t>
+  </si>
+  <si>
+    <t>총 점수: {0}</t>
+  </si>
+  <si>
+    <t>광고보고 이어하기</t>
+  </si>
+  <si>
     <t>플레이어</t>
+  </si>
+  <si>
+    <t>Zh_CN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Player</t>
+    <t>Zh_TW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>레벨 {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Level {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game Start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파란꽁룡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간꽁룡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초록꽁룡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노란꽁룡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlueDino</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedDino</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreenDino</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowDino</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주황불</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrangeFire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파란불</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlueFire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일시정지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>レベル{0}</t>
+  </si>
+  <si>
+    <t>级{0}</t>
+  </si>
+  <si>
+    <t>級{0}</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>攻撃</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>攻擊</t>
+  </si>
+  <si>
+    <t>Outing</t>
+  </si>
+  <si>
+    <t>外出</t>
+  </si>
+  <si>
+    <t>郊游</t>
+  </si>
+  <si>
+    <t>郊遊</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+  </si>
+  <si>
+    <t>跳</t>
+  </si>
+  <si>
+    <t>starting Game</t>
+  </si>
+  <si>
+    <t>ゲームの開始</t>
+  </si>
+  <si>
+    <t>开始游戏</t>
+  </si>
+  <si>
+    <t>開始遊戲</t>
   </si>
   <si>
     <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game Over</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처치 몬스터: {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kill Monster: {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 점수: {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Score: {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광고보고 이어하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Continuing after ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alive Time: {0} min {1} sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생존 시간: {0} 분 {1} 초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一時停止</t>
+  </si>
+  <si>
+    <t>暂停</t>
+  </si>
+  <si>
+    <t>暫停</t>
+  </si>
+  <si>
+    <t>game over</t>
+  </si>
+  <si>
+    <t>ゲームオーバー</t>
+  </si>
+  <si>
+    <t>游戏结束</t>
+  </si>
+  <si>
+    <t>遊戲結束</t>
+  </si>
+  <si>
+    <t>Survival time: {0} minute {1} second</t>
+  </si>
+  <si>
+    <t>サバイバル時間：{0} minute {1} second</t>
+  </si>
+  <si>
+    <t>生存时间：{0}分钟{1}第二</t>
+  </si>
+  <si>
+    <t>生存時間：{0}分鐘{1}第二</t>
+  </si>
+  <si>
+    <t>Kyo Monster: {0}</t>
+  </si>
+  <si>
+    <t>京のモンスター：{0}</t>
+  </si>
+  <si>
+    <t>Kyo Monster：{0}</t>
+  </si>
+  <si>
+    <t>Total score: {0}</t>
+  </si>
+  <si>
+    <t>合計スコア：{0}</t>
+  </si>
+  <si>
+    <t>总分：{0}</t>
+  </si>
+  <si>
+    <t>總分：{0}</t>
+  </si>
+  <si>
+    <t>Listing on advertising</t>
+  </si>
+  <si>
+    <t>広告のリスト</t>
+  </si>
+  <si>
+    <t>广告上的列表</t>
+  </si>
+  <si>
+    <t>廣告上的列表</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>プレーヤー</t>
+  </si>
+  <si>
+    <t>球员</t>
+  </si>
+  <si>
+    <t>球員</t>
+  </si>
+  <si>
+    <t>파란 공룡</t>
+  </si>
+  <si>
+    <t>Blue dinosaur</t>
+  </si>
+  <si>
+    <t>青い恐竜</t>
+  </si>
+  <si>
+    <t>蓝色恐龙</t>
+  </si>
+  <si>
+    <t>藍色恐龍</t>
+  </si>
+  <si>
+    <t>빨간 공룡</t>
+  </si>
+  <si>
+    <t>Red dinosaur</t>
+  </si>
+  <si>
+    <t>赤い恐竜</t>
+  </si>
+  <si>
+    <t>红色恐龙</t>
+  </si>
+  <si>
+    <t>紅色恐龍</t>
+  </si>
+  <si>
+    <t>초록 공룡</t>
+  </si>
+  <si>
+    <t>Green dinosaur</t>
+  </si>
+  <si>
+    <t>緑の恐竜</t>
+  </si>
+  <si>
+    <t>绿色恐龙</t>
+  </si>
+  <si>
+    <t>綠色恐龍</t>
+  </si>
+  <si>
+    <t>노란 공룡</t>
+  </si>
+  <si>
+    <t>Yellow dinosaur</t>
+  </si>
+  <si>
+    <t>黄色い恐竜</t>
+  </si>
+  <si>
+    <t>黄色恐龙</t>
+  </si>
+  <si>
+    <t>黃色恐龍</t>
+  </si>
+  <si>
+    <t>주황 불꽃</t>
+  </si>
+  <si>
+    <t>Orange flame</t>
+  </si>
+  <si>
+    <t>オレンジ色の炎</t>
+  </si>
+  <si>
+    <t>橙色的火焰</t>
+  </si>
+  <si>
+    <t>파란 불꽃</t>
+  </si>
+  <si>
+    <t>Blue flame</t>
+  </si>
+  <si>
+    <t>青い炎</t>
+  </si>
+  <si>
+    <t>蓝色火焰</t>
+  </si>
+  <si>
+    <t>藍色火焰</t>
   </si>
 </sst>
 </file>
@@ -516,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -529,29 +662,47 @@
     <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>91000001</v>
       </c>
@@ -559,198 +710,361 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>91000002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>91000003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>91000004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>91000005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>91000006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>91000007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>91000008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>91000009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>91000010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>91000011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>91010001</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>91011001</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>91011002</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>91011003</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>91011004</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>91012001</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>91012002</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TableOrigin/910_Text.xlsx
+++ b/TableOrigin/910_Text.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E08C164-3A52-48D5-B522-56A7DD2FDA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4571195E-2CFC-44A8-B46E-C980CB4C76A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7695" yWindow="465" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12900" yWindow="690" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="98">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,9 +88,6 @@
     <t>광고보고 이어하기</t>
   </si>
   <si>
-    <t>플레이어</t>
-  </si>
-  <si>
     <t>Zh_CN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,18 +222,6 @@
     <t>廣告上的列表</t>
   </si>
   <si>
-    <t>player</t>
-  </si>
-  <si>
-    <t>プレーヤー</t>
-  </si>
-  <si>
-    <t>球员</t>
-  </si>
-  <si>
-    <t>球員</t>
-  </si>
-  <si>
     <t>파란 공룡</t>
   </si>
   <si>
@@ -322,6 +307,32 @@
   </si>
   <si>
     <t>藍色火焰</t>
+  </si>
+  <si>
+    <t>인간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스켈레톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton</t>
   </si>
 </sst>
 </file>
@@ -649,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -676,10 +687,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -710,16 +721,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -730,16 +741,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -750,16 +761,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -770,16 +781,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -790,16 +801,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -810,16 +821,16 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -830,16 +841,16 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -850,16 +861,16 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>49</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -870,16 +881,16 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>53</v>
       </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -890,16 +901,16 @@
         <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -910,16 +921,16 @@
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>60</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -927,139 +938,179 @@
         <v>91010001</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
+        <v>94</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>91011001</v>
+        <v>91010002</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" t="s">
-        <v>71</v>
+        <v>96</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>91011002</v>
+        <v>91010003</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" t="s">
-        <v>76</v>
+        <v>97</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>91011003</v>
+        <v>91011001</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>91011004</v>
+        <v>91011002</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>91012001</v>
+        <v>91011003</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
+        <v>91011004</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>91012001</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>91012002</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" t="s">
-        <v>95</v>
+      <c r="B22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
